--- a/data/获取数据/政策导向指标/非国企20年数据/002525.xlsx
+++ b/data/获取数据/政策导向指标/非国企20年数据/002525.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>股票名称</t>
   </si>
@@ -53,6 +53,45 @@
   </si>
   <si>
     <t>换手率</t>
+  </si>
+  <si>
+    <t>证券代码</t>
+  </si>
+  <si>
+    <t>证券简称</t>
+  </si>
+  <si>
+    <t>变动日期</t>
+  </si>
+  <si>
+    <t>实际控制人名称</t>
+  </si>
+  <si>
+    <t>控股数量(万股)</t>
+  </si>
+  <si>
+    <t>控股比例(%)</t>
+  </si>
+  <si>
+    <t>直接控制人名称</t>
+  </si>
+  <si>
+    <t>控制方式</t>
+  </si>
+  <si>
+    <t>政府支持度</t>
+  </si>
+  <si>
+    <t>胜景山河</t>
+  </si>
+  <si>
+    <t>2010-12-16</t>
+  </si>
+  <si>
+    <t>姚胜</t>
+  </si>
+  <si>
+    <t>单独控制</t>
   </si>
 </sst>
 </file>
@@ -410,13 +449,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -455,6 +494,62 @@
       </c>
       <c r="M1" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="N2">
+        <v>2525</v>
+      </c>
+      <c r="O2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2">
+        <v>1856</v>
+      </c>
+      <c r="S2">
+        <v>27.29</v>
+      </c>
+      <c r="T2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V2">
+        <v>32.41559631748696</v>
       </c>
     </row>
   </sheetData>
